--- a/VoucherExcel/source/shovar.xlsx
+++ b/VoucherExcel/source/shovar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nir.kusan_novideasof\Desktop\personal\Bazap\bazap\VoucherExcel\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB359631-7F3E-47BF-A5B4-383140E5C275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70A8B67-ADA0-472A-BD59-18C5FE0DCDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>יחידה מנפקת</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>חתימה</t>
+  </si>
+  <si>
+    <t>הערות</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -299,34 +302,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -374,8 +353,99 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -383,32 +453,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,6 +502,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,49 +516,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,597 +872,759 @@
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="34"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="25"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="16" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="H5" s="21"/>
+      <c r="I5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="L6" s="11"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="L7" s="11"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="12" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="12" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="L15" s="11"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="L16" s="11"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="L17" s="11"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="L18" s="11"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="L19" s="11"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="5">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>20</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>21</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="8" t="s">
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>22</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I14:K14"/>
+  <mergeCells count="89">
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="C3:J4"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I25:K25"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="H8:K8"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C3:G4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VoucherExcel/source/shovar.xlsx
+++ b/VoucherExcel/source/shovar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nir.kusan_novideasof\Desktop\personal\Bazap\bazap\VoucherExcel\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70A8B67-ADA0-472A-BD59-18C5FE0DCDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126D765C-11C6-4A2E-ABD6-FFBF925113BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -167,17 +167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -264,17 +253,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -440,10 +418,19 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -453,110 +440,110 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,53 +864,51 @@
     <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="24"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -932,655 +917,597 @@
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="40"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6" t="s">
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5">
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4">
         <v>6</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4">
         <v>11</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4">
         <v>12</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="5">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="4">
         <v>13</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4">
         <v>14</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4">
         <v>15</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4">
         <v>16</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="4">
         <v>17</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4">
         <v>18</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4">
         <v>19</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="5">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4">
         <v>20</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="31" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="31" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="38" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="33" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="38" t="s">
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="33" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="38" t="s">
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="33" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="38" t="s">
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="33" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="38" t="s">
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="33" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C3:J4"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
@@ -1597,32 +1524,59 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I24:L24"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
